--- a/Cryptocurrency.xlsx
+++ b/Cryptocurrency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blood\Desktop\lietujomprog\projektadarbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06025598-F6AC-488F-8BAD-E5D40F58EBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3BC12A-2224-4A21-8C88-765E3EE30248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Full name</t>
   </si>
@@ -44,86 +41,83 @@
     <t>Short Name</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Bitcoin</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
     <t>Ethereum</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>BTC</t>
-  </si>
-  <si>
     <t>BNB</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>MATIC</t>
   </si>
   <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
     <t>ATOM</t>
   </si>
   <si>
+    <t>Aptos</t>
+  </si>
+  <si>
     <t>APT</t>
   </si>
   <si>
+    <t>Arbitrum</t>
+  </si>
+  <si>
     <t>ARB</t>
   </si>
   <si>
+    <t>Sui</t>
+  </si>
+  <si>
     <t>SUI</t>
   </si>
   <si>
-    <t>ZKF</t>
+    <t>Tehter USDt</t>
   </si>
   <si>
     <t>USDT</t>
   </si>
   <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>Solana</t>
-  </si>
-  <si>
-    <t>ZKFair</t>
-  </si>
-  <si>
-    <t>Sui</t>
-  </si>
-  <si>
-    <t>Tehter USDt</t>
-  </si>
-  <si>
-    <t>Arbitrum</t>
-  </si>
-  <si>
-    <t>Aptos</t>
-  </si>
-  <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Changes per Day</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Price per token</t>
+    <t>Price per token Now</t>
+  </si>
+  <si>
+    <t>Price per token from last check</t>
+  </si>
+  <si>
+    <t>Changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +127,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,15 +158,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +469,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,21 +477,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -489,158 +502,183 @@
       <c r="C2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4" t="e">
+        <f>((E2/D2)*1)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2">
         <f>C2*D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.01</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">C3*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="e">
+        <f t="shared" ref="F3:F11" si="0">((E3/D3)*1)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4">
+        <f>C4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <f>C5*D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6">
+        <f>C6*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7">
+        <f>C7*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8">
+        <f>C8*D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9">
+        <f>C9*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10">
+        <f>C10*D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>9636</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11">
+        <f>C11*D11</f>
         <v>0</v>
       </c>
     </row>

--- a/Cryptocurrency.xlsx
+++ b/Cryptocurrency.xlsx
@@ -1,149 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blood\Desktop\lietujomprog\projektadarbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3BC12A-2224-4A21-8C88-765E3EE30248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>Ethereum</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>BNB</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>MATIC</t>
-  </si>
-  <si>
-    <t>Solana</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>Aptos</t>
-  </si>
-  <si>
-    <t>APT</t>
-  </si>
-  <si>
-    <t>Arbitrum</t>
-  </si>
-  <si>
-    <t>ARB</t>
-  </si>
-  <si>
-    <t>Sui</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Tehter USDt</t>
-  </si>
-  <si>
-    <t>USDT</t>
-  </si>
-  <si>
-    <t>Price per token Now</t>
-  </si>
-  <si>
-    <t>Price per token from last check</t>
-  </si>
-  <si>
-    <t>Changes</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,34 +58,93 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -452,234 +410,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col width="13.5703125" customWidth="1" min="1" max="1"/>
+    <col width="15.5703125" customWidth="1" min="2" max="2"/>
+    <col width="14.7109375" customWidth="1" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" min="4" max="4"/>
+    <col width="16.7109375" customWidth="1" min="5" max="5"/>
+    <col width="18.140625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F2" s="4" t="e">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Price per token Now</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Price per token from last check</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42646.49</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42627.69</v>
+      </c>
+      <c r="F2" s="4">
         <f>((E2/D2)*1)-1</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="G2">
         <f>C2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.01</v>
       </c>
-      <c r="F3" s="4" t="e">
-        <f t="shared" ref="F3:F11" si="0">((E3/D3)*1)-1</f>
-        <v>#DIV/0!</v>
+      <c r="D3" t="n">
+        <v>2526.55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2525.03</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((E3/D3)*1)-1</f>
+        <v/>
       </c>
       <c r="G3">
         <f>C3*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="F4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D4" t="n">
+        <v>308.74</v>
+      </c>
+      <c r="E4" t="n">
+        <v>308.74</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((E4/D4)*1)-1</f>
+        <v/>
       </c>
       <c r="G4">
         <f>C4*D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D5" t="n">
+        <v>0.8129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8122</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((E5/D5)*1)-1</f>
+        <v/>
       </c>
       <c r="G5">
         <f>C5*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D6" t="n">
+        <v>101.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.31</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((E6/D6)*1)-1</f>
+        <v/>
       </c>
       <c r="G6">
         <f>C6*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATOM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D7" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((E7/D7)*1)-1</f>
+        <v/>
       </c>
       <c r="G7">
         <f>C7*D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aptos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>APT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D8" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((E8/D8)*1)-1</f>
+        <v/>
       </c>
       <c r="G8">
         <f>C8*D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arbitrum</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="F9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((E9/D9)*1)-1</f>
+        <v/>
       </c>
       <c r="G9">
         <f>C9*D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sui</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SUI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((E10/D10)*1)-1</f>
+        <v/>
       </c>
       <c r="G10">
         <f>C10*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tehter USDt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USDT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D11" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((E11/D11)*1)-1</f>
+        <v/>
       </c>
       <c r="G11">
         <f>C11*D11</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Cryptocurrency.xlsx
+++ b/Cryptocurrency.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1260" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$G$12</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -61,7 +63,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -71,11 +73,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -415,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -447,24 +480,39 @@
           <t>Amount</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Buy Price</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Price per token Now</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Price per token from last check</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Changes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Buy in USD</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>in USD now</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
         </is>
       </c>
     </row>
@@ -480,20 +528,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0005</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>42646.49</v>
+        <v>42529.21</v>
       </c>
       <c r="E2" t="n">
-        <v>42627.69</v>
-      </c>
-      <c r="F2" s="4">
-        <f>((E2/D2)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G2">
+        <v>42544.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>42538.8</v>
+      </c>
+      <c r="G2" s="4">
+        <f>((F2/E2)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H2">
         <f>C2*D2</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>C2*E2</f>
+        <v/>
+      </c>
+      <c r="J2" s="5">
+        <f>(I2/H2)-1</f>
         <v/>
       </c>
     </row>
@@ -512,17 +571,28 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>2526.55</v>
+        <v>2517.05</v>
       </c>
       <c r="E3" t="n">
-        <v>2525.03</v>
-      </c>
-      <c r="F3" s="4">
-        <f>((E3/D3)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G3">
+        <v>2519.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2518.76</v>
+      </c>
+      <c r="G3" s="4">
+        <f>((F3/E3)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H3">
         <f>C3*D3</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>C3*E3</f>
+        <v/>
+      </c>
+      <c r="J3" s="5">
+        <f>(I3/H3)-1</f>
         <v/>
       </c>
     </row>
@@ -538,20 +608,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>308.74</v>
+        <v>306.69</v>
       </c>
       <c r="E4" t="n">
-        <v>308.74</v>
-      </c>
-      <c r="F4" s="4">
-        <f>((E4/D4)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G4">
+        <v>306.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>305.95</v>
+      </c>
+      <c r="G4" s="4">
+        <f>((F4/E4)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H4">
         <f>C4*D4</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>C4*E4</f>
+        <v/>
+      </c>
+      <c r="J4" s="5">
+        <f>(I4/H4)-1</f>
         <v/>
       </c>
     </row>
@@ -567,20 +648,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8129</v>
+        <v>0.8022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8122</v>
-      </c>
-      <c r="F5" s="4">
-        <f>((E5/D5)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G5">
+        <v>0.8034</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8027</v>
+      </c>
+      <c r="G5" s="4">
+        <f>((F5/E5)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H5">
         <f>C5*D5</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>C5*E5</f>
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <f>(I5/H5)-1</f>
         <v/>
       </c>
     </row>
@@ -596,20 +688,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>101.16</v>
+        <v>100.07</v>
       </c>
       <c r="E6" t="n">
-        <v>101.31</v>
-      </c>
-      <c r="F6" s="4">
-        <f>((E6/D6)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G6">
+        <v>99.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <f>((F6/E6)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H6">
         <f>C6*D6</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>C6*E6</f>
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <f>(I6/H6)-1</f>
         <v/>
       </c>
     </row>
@@ -625,20 +728,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10.13</v>
+        <v>10.12</v>
       </c>
       <c r="E7" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="F7" s="4">
-        <f>((E7/D7)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G7">
+        <v>10.07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="G7" s="4">
+        <f>((F7/E7)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H7">
         <f>C7*D7</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>C7*E7</f>
+        <v/>
+      </c>
+      <c r="J7" s="5">
+        <f>(I7/H7)-1</f>
         <v/>
       </c>
     </row>
@@ -654,20 +768,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F8" s="4">
-        <f>((E8/D8)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G8">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <f>((F8/E8)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H8">
         <f>C8*D8</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>C8*E8</f>
+        <v/>
+      </c>
+      <c r="J8" s="5">
+        <f>(I8/H8)-1</f>
         <v/>
       </c>
     </row>
@@ -683,20 +808,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="E9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F9" s="4">
-        <f>((E9/D9)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G9">
+        <v>1.99</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G9" s="4">
+        <f>((F9/E9)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H9">
         <f>C9*D9</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>C9*E9</f>
+        <v/>
+      </c>
+      <c r="J9" s="5">
+        <f>(I9/H9)-1</f>
         <v/>
       </c>
     </row>
@@ -712,20 +848,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F10" s="4">
-        <f>((E10/D10)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G10">
+        <v>1.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G10" s="4">
+        <f>((F10/E10)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H10">
         <f>C10*D10</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>C10*E10</f>
+        <v/>
+      </c>
+      <c r="J10" s="5">
+        <f>(I10/H10)-1</f>
         <v/>
       </c>
     </row>
@@ -741,24 +888,92 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9992</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.9994</v>
-      </c>
-      <c r="F11" s="4">
-        <f>((E11/D11)*1)-1</f>
-        <v/>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((F11/E11)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H11">
         <f>C11*D11</f>
         <v/>
       </c>
+      <c r="I11">
+        <f>C11*E11</f>
+        <v/>
+      </c>
+      <c r="J11" s="5">
+        <f>(I11/H11)-1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZkFair</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ZKF</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01618</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01662</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01662</v>
+      </c>
+      <c r="G12" s="4">
+        <f>((F12/E12)*1)-1</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>C12*D12</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>C12*E12</f>
+        <v/>
+      </c>
+      <c r="J12" s="5">
+        <f>(I12/H12)-1</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G12"/>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="cellIs" priority="3" operator="lessThan" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J12">
+    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>